--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LONG\Personal Project\Chang\TT.API\TT.API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847DFDA2-0FAB-4A3C-8A72-42127A8EC5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6599FFB4-C8BE-49D4-A204-A9D376C9A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11100" xr2:uid="{2B12D157-3AB2-48E6-AD92-EA5CC58E5169}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B12D157-3AB2-48E6-AD92-EA5CC58E5169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Employee ID</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>OT  Hours</t>
+  </si>
+  <si>
+    <t>Working Hours Sunday</t>
+  </si>
+  <si>
+    <t>OT  Hours Sunday</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C37ECF1-32E8-4893-B028-942A3252A2F4}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,9 +487,11 @@
     <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
     <col min="5" max="9" width="26.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,6 +518,12 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
